--- a/IBRX.xlsx
+++ b/IBRX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE567D86-12CF-4485-8F6F-7296723E64A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2B9D4E-5AA0-487C-A277-A2C0702D81D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{E1BF6D11-FDE0-404B-9E96-6DCE28E9CF49}"/>
+    <workbookView xWindow="-30600" yWindow="660" windowWidth="27660" windowHeight="19950" activeTab="2" xr2:uid="{E1BF6D11-FDE0-404B-9E96-6DCE28E9CF49}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Price</t>
   </si>
@@ -125,6 +125,21 @@
   </si>
   <si>
     <t>Economics</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>PIC</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
@@ -261,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -269,8 +284,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -618,11 +632,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680B6DA3-B733-4848-9154-2BC9418BC700}">
-  <dimension ref="B2:K9"/>
+  <dimension ref="B2:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -632,141 +644,145 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>27</v>
       </c>
       <c r="I2" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>5.3</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>45404</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="7"/>
+      <c r="G3" s="6"/>
       <c r="I3" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="2">
-        <v>691.56796099999997</v>
+        <v>696.53341799999998</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
       <c r="I4" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="2">
         <f>+J2*J3</f>
-        <v>3665.3101932999998</v>
+        <v>2451.7976313599997</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="6"/>
       <c r="I5" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="2">
-        <f>133.035+37.46</f>
-        <v>170.495</v>
+        <f>130.104+87.875</f>
+        <v>217.97900000000001</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="7"/>
+      <c r="G6" s="6"/>
       <c r="I6" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="2">
-        <f>106.637+580.449</f>
-        <v>687.08600000000001</v>
+        <f>584.107+108.811</f>
+        <v>692.91800000000001</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="7"/>
+      <c r="G7" s="6"/>
       <c r="I7" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="2">
         <f>+J4-J5+J6</f>
-        <v>4181.9011933000002</v>
+        <v>2926.73663136</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2531.9090000000001</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3230.357</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -789,7 +805,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -825,7 +841,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -844,111 +860,127 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D91938-14EE-4703-80FA-873DC0635278}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="3"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2">
         <v>2024</v>
       </c>
-      <c r="D2">
-        <f>+C2+1</f>
+      <c r="I2">
+        <f t="shared" ref="I2:V2" si="0">+H2+1</f>
         <v>2025</v>
       </c>
-      <c r="E2">
-        <f>+D2+1</f>
+      <c r="J2">
+        <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="F2">
-        <f>+E2+1</f>
+      <c r="K2">
+        <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="G2">
-        <f>+F2+1</f>
+      <c r="L2">
+        <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="H2">
-        <f>+G2+1</f>
+      <c r="M2">
+        <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="I2">
-        <f>+H2+1</f>
+      <c r="N2">
+        <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="J2">
-        <f>+I2+1</f>
+      <c r="O2">
+        <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="K2">
-        <f>+J2+1</f>
+      <c r="P2">
+        <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="L2">
-        <f>+K2+1</f>
+      <c r="Q2">
+        <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="M2">
-        <f>+L2+1</f>
+      <c r="R2">
+        <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="N2">
-        <f>+M2+1</f>
+      <c r="S2">
+        <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="O2">
-        <f>+N2+1</f>
+      <c r="T2">
+        <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="P2">
-        <f>+O2+1</f>
+      <c r="U2">
+        <f t="shared" si="0"/>
         <v>2037</v>
       </c>
-      <c r="Q2">
-        <f>+P2+1</f>
+      <c r="V2">
+        <f t="shared" si="0"/>
         <v>2038</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2">
+      <c r="H3" s="2">
         <f>36000*6</f>
         <v>216000</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4">
+      <c r="H4">
         <v>16000</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="2">
-        <f>+C3*C4</f>
+      <c r="D5" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="H5" s="2">
+        <f>+H3*H4</f>
         <v>3456000000</v>
       </c>
     </row>
